--- a/p0-persentase-penduduk-miskin/Persentase Penduduk Miskin (P0) Menurut Provinsi dan Daerah, 2020.xlsx
+++ b/p0-persentase-penduduk-miskin/Persentase Penduduk Miskin (P0) Menurut Provinsi dan Daerah, 2020.xlsx
@@ -1,41 +1,192 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://binusianorg-my.sharepoint.com/personal/dhiya_muharram_binus_ac_id/Documents/0. Lomba &amp; Sertifikat Dokum/Data Slayer/Github/dataset-slayer/p0-persentase-penduduk-miskin/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_40EF431F97E9BB65426102AB8855B237A12C5022" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10925C06-6F88-4CFE-ACE8-EA21DE3D4F5F}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="48">
+  <si>
+    <t>38 Provinsi</t>
+  </si>
+  <si>
+    <t>Persentase Penduduk Miskin (P0) Menurut Provinsi dan Daerah (Persen)</t>
+  </si>
+  <si>
+    <t>Perkotaan</t>
+  </si>
+  <si>
+    <t>Perdesaan</t>
+  </si>
+  <si>
+    <t>Jumlah</t>
+  </si>
+  <si>
+    <t>Semester 1 (Maret)</t>
+  </si>
+  <si>
+    <t>Semester 2 (September)</t>
+  </si>
+  <si>
+    <t>Tahunan</t>
+  </si>
+  <si>
+    <t>ACEH</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>SUMATERA UTARA</t>
+  </si>
+  <si>
+    <t>SUMATERA BARAT</t>
+  </si>
+  <si>
+    <t>RIAU</t>
+  </si>
+  <si>
+    <t>JAMBI</t>
+  </si>
+  <si>
+    <t>SUMATERA SELATAN</t>
+  </si>
+  <si>
+    <t>BENGKULU</t>
+  </si>
+  <si>
+    <t>LAMPUNG</t>
+  </si>
+  <si>
+    <t>KEP. BANGKA BELITUNG</t>
+  </si>
+  <si>
+    <t>KEP. RIAU</t>
+  </si>
+  <si>
+    <t>DKI JAKARTA</t>
+  </si>
+  <si>
+    <t>JAWA BARAT</t>
+  </si>
+  <si>
+    <t>JAWA TENGAH</t>
+  </si>
+  <si>
+    <t>DI YOGYAKARTA</t>
+  </si>
+  <si>
+    <t>JAWA TIMUR</t>
+  </si>
+  <si>
+    <t>BANTEN</t>
+  </si>
+  <si>
+    <t>BALI</t>
+  </si>
+  <si>
+    <t>NUSA TENGGARA BARAT</t>
+  </si>
+  <si>
+    <t>NUSA TENGGARA TIMUR</t>
+  </si>
+  <si>
+    <t>KALIMANTAN BARAT</t>
+  </si>
+  <si>
+    <t>KALIMANTAN TENGAH</t>
+  </si>
+  <si>
+    <t>KALIMANTAN SELATAN</t>
+  </si>
+  <si>
+    <t>KALIMANTAN TIMUR</t>
+  </si>
+  <si>
+    <t>KALIMANTAN UTARA</t>
+  </si>
+  <si>
+    <t>SULAWESI UTARA</t>
+  </si>
+  <si>
+    <t>SULAWESI TENGAH</t>
+  </si>
+  <si>
+    <t>SULAWESI SELATAN</t>
+  </si>
+  <si>
+    <t>SULAWESI TENGGARA</t>
+  </si>
+  <si>
+    <t>GORONTALO</t>
+  </si>
+  <si>
+    <t>SULAWESI BARAT</t>
+  </si>
+  <si>
+    <t>MALUKU</t>
+  </si>
+  <si>
+    <t>MALUKU UTARA</t>
+  </si>
+  <si>
+    <t>PAPUA BARAT</t>
+  </si>
+  <si>
+    <t>PAPUA BARAT DAYA</t>
+  </si>
+  <si>
+    <t>PAPUA</t>
+  </si>
+  <si>
+    <t>PAPUA SELATAN</t>
+  </si>
+  <si>
+    <t>PAPUA TENGAH</t>
+  </si>
+  <si>
+    <t>PAPUA PEGUNUNGAN</t>
+  </si>
+  <si>
+    <t>INDONESIA</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -64,7 +215,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -72,6 +224,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,76 +556,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" activeCellId="1" sqref="C6 F6"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>38 Provinsi</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" t="str">
-        <v>Persentase Penduduk Miskin (P0) Menurut Provinsi dan Daerah (Persen)</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" t="str">
-        <v>Perkotaan</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Perdesaan</v>
-      </c>
-      <c r="H3" t="str">
-        <v>Jumlah</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4">
+    <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
         <v>2020</v>
       </c>
-      <c r="E4">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
         <v>2020</v>
       </c>
-      <c r="H4">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="str">
-        <v>Semester 1 (Maret)</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Semester 2 (September)</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Tahunan</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Semester 1 (Maret)</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Semester 2 (September)</v>
-      </c>
-      <c r="G5" t="str">
-        <v>Tahunan</v>
-      </c>
-      <c r="H5" t="str">
-        <v>Semester 1 (Maret)</v>
-      </c>
-      <c r="I5" t="str">
-        <v>Semester 2 (September)</v>
-      </c>
-      <c r="J5" t="str">
-        <v>Tahunan</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>ACEH</v>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>8</v>
       </c>
       <c r="B6">
         <v>9.84</v>
@@ -473,8 +666,8 @@
       <c r="C6">
         <v>10.31</v>
       </c>
-      <c r="D6" t="str">
-        <v>-</v>
+      <c r="D6" t="s">
+        <v>9</v>
       </c>
       <c r="E6">
         <v>17.46</v>
@@ -482,8 +675,8 @@
       <c r="F6">
         <v>17.96</v>
       </c>
-      <c r="G6" t="str">
-        <v>-</v>
+      <c r="G6" t="s">
+        <v>9</v>
       </c>
       <c r="H6">
         <v>14.99</v>
@@ -491,13 +684,17 @@
       <c r="I6">
         <v>15.43</v>
       </c>
-      <c r="J6" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>SUMATERA UTARA</v>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6">
+        <f>AVERAGE(B6,E6)</f>
+        <v>13.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>10</v>
       </c>
       <c r="B7">
         <v>8.73</v>
@@ -505,8 +702,8 @@
       <c r="C7">
         <v>9.25</v>
       </c>
-      <c r="D7" t="str">
-        <v>-</v>
+      <c r="D7" t="s">
+        <v>9</v>
       </c>
       <c r="E7">
         <v>8.77</v>
@@ -514,8 +711,8 @@
       <c r="F7">
         <v>9.02</v>
       </c>
-      <c r="G7" t="str">
-        <v>-</v>
+      <c r="G7" t="s">
+        <v>9</v>
       </c>
       <c r="H7">
         <v>8.75</v>
@@ -523,13 +720,13 @@
       <c r="I7">
         <v>9.14</v>
       </c>
-      <c r="J7" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>SUMATERA BARAT</v>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>11</v>
       </c>
       <c r="B8">
         <v>4.97</v>
@@ -537,8 +734,8 @@
       <c r="C8">
         <v>5.22</v>
       </c>
-      <c r="D8" t="str">
-        <v>-</v>
+      <c r="D8" t="s">
+        <v>9</v>
       </c>
       <c r="E8">
         <v>7.43</v>
@@ -546,8 +743,8 @@
       <c r="F8">
         <v>7.83</v>
       </c>
-      <c r="G8" t="str">
-        <v>-</v>
+      <c r="G8" t="s">
+        <v>9</v>
       </c>
       <c r="H8">
         <v>6.28</v>
@@ -555,13 +752,13 @@
       <c r="I8">
         <v>6.56</v>
       </c>
-      <c r="J8" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>RIAU</v>
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>12</v>
       </c>
       <c r="B9">
         <v>6.12</v>
@@ -569,8 +766,8 @@
       <c r="C9">
         <v>6.39</v>
       </c>
-      <c r="D9" t="str">
-        <v>-</v>
+      <c r="D9" t="s">
+        <v>9</v>
       </c>
       <c r="E9">
         <v>7.29</v>
@@ -578,8 +775,8 @@
       <c r="F9">
         <v>7.47</v>
       </c>
-      <c r="G9" t="str">
-        <v>-</v>
+      <c r="G9" t="s">
+        <v>9</v>
       </c>
       <c r="H9">
         <v>6.82</v>
@@ -587,13 +784,13 @@
       <c r="I9">
         <v>7.04</v>
       </c>
-      <c r="J9" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>JAMBI</v>
+      <c r="J9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>13</v>
       </c>
       <c r="B10">
         <v>10.41</v>
@@ -601,8 +798,8 @@
       <c r="C10">
         <v>11.22</v>
       </c>
-      <c r="D10" t="str">
-        <v>-</v>
+      <c r="D10" t="s">
+        <v>9</v>
       </c>
       <c r="E10">
         <v>6.23</v>
@@ -610,8 +807,8 @@
       <c r="F10">
         <v>6.4</v>
       </c>
-      <c r="G10" t="str">
-        <v>-</v>
+      <c r="G10" t="s">
+        <v>9</v>
       </c>
       <c r="H10">
         <v>7.58</v>
@@ -619,13 +816,13 @@
       <c r="I10">
         <v>7.97</v>
       </c>
-      <c r="J10" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>SUMATERA SELATAN</v>
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>14</v>
       </c>
       <c r="B11">
         <v>12.16</v>
@@ -633,8 +830,8 @@
       <c r="C11">
         <v>12.52</v>
       </c>
-      <c r="D11" t="str">
-        <v>-</v>
+      <c r="D11" t="s">
+        <v>9</v>
       </c>
       <c r="E11">
         <v>12.96</v>
@@ -642,8 +839,8 @@
       <c r="F11">
         <v>13.25</v>
       </c>
-      <c r="G11" t="str">
-        <v>-</v>
+      <c r="G11" t="s">
+        <v>9</v>
       </c>
       <c r="H11">
         <v>12.66</v>
@@ -651,13 +848,13 @@
       <c r="I11">
         <v>12.98</v>
       </c>
-      <c r="J11" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>BENGKULU</v>
+      <c r="J11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>15</v>
       </c>
       <c r="B12">
         <v>14.77</v>
@@ -665,8 +862,8 @@
       <c r="C12">
         <v>15.06</v>
       </c>
-      <c r="D12" t="str">
-        <v>-</v>
+      <c r="D12" t="s">
+        <v>9</v>
       </c>
       <c r="E12">
         <v>15.16</v>
@@ -674,8 +871,8 @@
       <c r="F12">
         <v>15.42</v>
       </c>
-      <c r="G12" t="str">
-        <v>-</v>
+      <c r="G12" t="s">
+        <v>9</v>
       </c>
       <c r="H12">
         <v>15.03</v>
@@ -683,13 +880,13 @@
       <c r="I12">
         <v>15.3</v>
       </c>
-      <c r="J12" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>LAMPUNG</v>
+      <c r="J12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>16</v>
       </c>
       <c r="B13">
         <v>9.02</v>
@@ -697,8 +894,8 @@
       <c r="C13">
         <v>9.59</v>
       </c>
-      <c r="D13" t="str">
-        <v>-</v>
+      <c r="D13" t="s">
+        <v>9</v>
       </c>
       <c r="E13">
         <v>13.83</v>
@@ -706,8 +903,8 @@
       <c r="F13">
         <v>14.22</v>
       </c>
-      <c r="G13" t="str">
-        <v>-</v>
+      <c r="G13" t="s">
+        <v>9</v>
       </c>
       <c r="H13">
         <v>12.34</v>
@@ -715,13 +912,13 @@
       <c r="I13">
         <v>12.76</v>
       </c>
-      <c r="J13" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>KEP. BANGKA BELITUNG</v>
+      <c r="J13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>17</v>
       </c>
       <c r="B14">
         <v>3.06</v>
@@ -729,8 +926,8 @@
       <c r="C14">
         <v>3.43</v>
       </c>
-      <c r="D14" t="str">
-        <v>-</v>
+      <c r="D14" t="s">
+        <v>9</v>
       </c>
       <c r="E14">
         <v>6.33</v>
@@ -738,22 +935,22 @@
       <c r="F14">
         <v>6.75</v>
       </c>
-      <c r="G14" t="str">
-        <v>-</v>
+      <c r="G14" t="s">
+        <v>9</v>
       </c>
       <c r="H14">
         <v>4.53</v>
       </c>
       <c r="I14">
-        <v>4.89</v>
-      </c>
-      <c r="J14" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>KEP. RIAU</v>
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="J14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>18</v>
       </c>
       <c r="B15">
         <v>5.42</v>
@@ -761,8 +958,8 @@
       <c r="C15">
         <v>5.69</v>
       </c>
-      <c r="D15" t="str">
-        <v>-</v>
+      <c r="D15" t="s">
+        <v>9</v>
       </c>
       <c r="E15">
         <v>10.43</v>
@@ -770,8 +967,8 @@
       <c r="F15">
         <v>11.25</v>
       </c>
-      <c r="G15" t="str">
-        <v>-</v>
+      <c r="G15" t="s">
+        <v>9</v>
       </c>
       <c r="H15">
         <v>5.92</v>
@@ -779,45 +976,45 @@
       <c r="I15">
         <v>6.13</v>
       </c>
-      <c r="J15" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>DKI JAKARTA</v>
+      <c r="J15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>19</v>
       </c>
       <c r="B16">
         <v>4.53</v>
       </c>
       <c r="C16">
-        <v>4.69</v>
-      </c>
-      <c r="D16" t="str">
-        <v>-</v>
-      </c>
-      <c r="E16" t="str">
-        <v>-</v>
-      </c>
-      <c r="F16" t="str">
-        <v>-</v>
-      </c>
-      <c r="G16" t="str">
-        <v>-</v>
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
       </c>
       <c r="H16">
         <v>4.53</v>
       </c>
       <c r="I16">
-        <v>4.69</v>
-      </c>
-      <c r="J16" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>JAWA BARAT</v>
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="J16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>20</v>
       </c>
       <c r="B17">
         <v>7.14</v>
@@ -825,8 +1022,8 @@
       <c r="C17">
         <v>7.79</v>
       </c>
-      <c r="D17" t="str">
-        <v>-</v>
+      <c r="D17" t="s">
+        <v>9</v>
       </c>
       <c r="E17">
         <v>10.27</v>
@@ -834,8 +1031,8 @@
       <c r="F17">
         <v>10.64</v>
       </c>
-      <c r="G17" t="str">
-        <v>-</v>
+      <c r="G17" t="s">
+        <v>9</v>
       </c>
       <c r="H17">
         <v>7.88</v>
@@ -843,13 +1040,13 @@
       <c r="I17">
         <v>8.43</v>
       </c>
-      <c r="J17" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>JAWA TENGAH</v>
+      <c r="J17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>21</v>
       </c>
       <c r="B18">
         <v>10.09</v>
@@ -857,8 +1054,8 @@
       <c r="C18">
         <v>10.57</v>
       </c>
-      <c r="D18" t="str">
-        <v>-</v>
+      <c r="D18" t="s">
+        <v>9</v>
       </c>
       <c r="E18">
         <v>12.8</v>
@@ -866,8 +1063,8 @@
       <c r="F18">
         <v>13.2</v>
       </c>
-      <c r="G18" t="str">
-        <v>-</v>
+      <c r="G18" t="s">
+        <v>9</v>
       </c>
       <c r="H18">
         <v>11.41</v>
@@ -875,13 +1072,13 @@
       <c r="I18">
         <v>11.84</v>
       </c>
-      <c r="J18" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>DI YOGYAKARTA</v>
+      <c r="J18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>22</v>
       </c>
       <c r="B19">
         <v>11.53</v>
@@ -889,8 +1086,8 @@
       <c r="C19">
         <v>12.17</v>
       </c>
-      <c r="D19" t="str">
-        <v>-</v>
+      <c r="D19" t="s">
+        <v>9</v>
       </c>
       <c r="E19">
         <v>14.31</v>
@@ -898,8 +1095,8 @@
       <c r="F19">
         <v>14.57</v>
       </c>
-      <c r="G19" t="str">
-        <v>-</v>
+      <c r="G19" t="s">
+        <v>9</v>
       </c>
       <c r="H19">
         <v>12.28</v>
@@ -907,22 +1104,22 @@
       <c r="I19">
         <v>12.8</v>
       </c>
-      <c r="J19" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>JAWA TIMUR</v>
+      <c r="J19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>23</v>
       </c>
       <c r="B20">
         <v>7.89</v>
       </c>
       <c r="C20">
-        <v>8.37</v>
-      </c>
-      <c r="D20" t="str">
-        <v>-</v>
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
       </c>
       <c r="E20">
         <v>14.77</v>
@@ -930,8 +1127,8 @@
       <c r="F20">
         <v>15.16</v>
       </c>
-      <c r="G20" t="str">
-        <v>-</v>
+      <c r="G20" t="s">
+        <v>9</v>
       </c>
       <c r="H20">
         <v>11.09</v>
@@ -939,13 +1136,13 @@
       <c r="I20">
         <v>11.46</v>
       </c>
-      <c r="J20" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>BANTEN</v>
+      <c r="J20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>24</v>
       </c>
       <c r="B21">
         <v>5.03</v>
@@ -953,8 +1150,8 @@
       <c r="C21">
         <v>5.85</v>
       </c>
-      <c r="D21" t="str">
-        <v>-</v>
+      <c r="D21" t="s">
+        <v>9</v>
       </c>
       <c r="E21">
         <v>8.18</v>
@@ -962,8 +1159,8 @@
       <c r="F21">
         <v>8.57</v>
       </c>
-      <c r="G21" t="str">
-        <v>-</v>
+      <c r="G21" t="s">
+        <v>9</v>
       </c>
       <c r="H21">
         <v>5.92</v>
@@ -971,13 +1168,13 @@
       <c r="I21">
         <v>6.63</v>
       </c>
-      <c r="J21" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>BALI</v>
+      <c r="J21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>25</v>
       </c>
       <c r="B22">
         <v>3.33</v>
@@ -985,8 +1182,8 @@
       <c r="C22">
         <v>4.04</v>
       </c>
-      <c r="D22" t="str">
-        <v>-</v>
+      <c r="D22" t="s">
+        <v>9</v>
       </c>
       <c r="E22">
         <v>4.78</v>
@@ -994,8 +1191,8 @@
       <c r="F22">
         <v>5.4</v>
       </c>
-      <c r="G22" t="str">
-        <v>-</v>
+      <c r="G22" t="s">
+        <v>9</v>
       </c>
       <c r="H22">
         <v>3.78</v>
@@ -1003,13 +1200,13 @@
       <c r="I22">
         <v>4.45</v>
       </c>
-      <c r="J22" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>NUSA TENGGARA BARAT</v>
+      <c r="J22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>26</v>
       </c>
       <c r="B23">
         <v>14.9</v>
@@ -1017,8 +1214,8 @@
       <c r="C23">
         <v>15.05</v>
       </c>
-      <c r="D23" t="str">
-        <v>-</v>
+      <c r="D23" t="s">
+        <v>9</v>
       </c>
       <c r="E23">
         <v>13.09</v>
@@ -1026,8 +1223,8 @@
       <c r="F23">
         <v>13.42</v>
       </c>
-      <c r="G23" t="str">
-        <v>-</v>
+      <c r="G23" t="s">
+        <v>9</v>
       </c>
       <c r="H23">
         <v>13.97</v>
@@ -1035,13 +1232,13 @@
       <c r="I23">
         <v>14.23</v>
       </c>
-      <c r="J23" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>NUSA TENGGARA TIMUR</v>
+      <c r="J23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>27</v>
       </c>
       <c r="B24">
         <v>8.64</v>
@@ -1049,8 +1246,8 @@
       <c r="C24">
         <v>8.76</v>
       </c>
-      <c r="D24" t="str">
-        <v>-</v>
+      <c r="D24" t="s">
+        <v>9</v>
       </c>
       <c r="E24">
         <v>24.73</v>
@@ -1058,8 +1255,8 @@
       <c r="F24">
         <v>25.26</v>
       </c>
-      <c r="G24" t="str">
-        <v>-</v>
+      <c r="G24" t="s">
+        <v>9</v>
       </c>
       <c r="H24">
         <v>20.9</v>
@@ -1067,22 +1264,22 @@
       <c r="I24">
         <v>21.21</v>
       </c>
-      <c r="J24" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>KALIMANTAN BARAT</v>
+      <c r="J24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>4.69</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="C25">
-        <v>4.86</v>
-      </c>
-      <c r="D25" t="str">
-        <v>-</v>
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
       </c>
       <c r="E25">
         <v>8.5</v>
@@ -1090,8 +1287,8 @@
       <c r="F25">
         <v>8.57</v>
       </c>
-      <c r="G25" t="str">
-        <v>-</v>
+      <c r="G25" t="s">
+        <v>9</v>
       </c>
       <c r="H25">
         <v>7.17</v>
@@ -1099,13 +1296,13 @@
       <c r="I25">
         <v>7.24</v>
       </c>
-      <c r="J25" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>KALIMANTAN TENGAH</v>
+      <c r="J25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>29</v>
       </c>
       <c r="B26">
         <v>4.62</v>
@@ -1113,8 +1310,8 @@
       <c r="C26">
         <v>4.92</v>
       </c>
-      <c r="D26" t="str">
-        <v>-</v>
+      <c r="D26" t="s">
+        <v>9</v>
       </c>
       <c r="E26">
         <v>4.96</v>
@@ -1122,8 +1319,8 @@
       <c r="F26">
         <v>5.5</v>
       </c>
-      <c r="G26" t="str">
-        <v>-</v>
+      <c r="G26" t="s">
+        <v>9</v>
       </c>
       <c r="H26">
         <v>4.82</v>
@@ -1131,13 +1328,13 @@
       <c r="I26">
         <v>5.26</v>
       </c>
-      <c r="J26" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>KALIMANTAN SELATAN</v>
+      <c r="J26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>30</v>
       </c>
       <c r="B27">
         <v>3.61</v>
@@ -1145,8 +1342,8 @@
       <c r="C27">
         <v>3.83</v>
       </c>
-      <c r="D27" t="str">
-        <v>-</v>
+      <c r="D27" t="s">
+        <v>9</v>
       </c>
       <c r="E27">
         <v>5.08</v>
@@ -1154,8 +1351,8 @@
       <c r="F27">
         <v>5.76</v>
       </c>
-      <c r="G27" t="str">
-        <v>-</v>
+      <c r="G27" t="s">
+        <v>9</v>
       </c>
       <c r="H27">
         <v>4.38</v>
@@ -1163,22 +1360,22 @@
       <c r="I27">
         <v>4.83</v>
       </c>
-      <c r="J27" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>KALIMANTAN TIMUR</v>
+      <c r="J27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>31</v>
       </c>
       <c r="B28">
         <v>4.45</v>
       </c>
       <c r="C28">
-        <v>5.1</v>
-      </c>
-      <c r="D28" t="str">
-        <v>-</v>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
       </c>
       <c r="E28">
         <v>9.51</v>
@@ -1186,8 +1383,8 @@
       <c r="F28">
         <v>9.98</v>
       </c>
-      <c r="G28" t="str">
-        <v>-</v>
+      <c r="G28" t="s">
+        <v>9</v>
       </c>
       <c r="H28">
         <v>6.1</v>
@@ -1195,31 +1392,31 @@
       <c r="I28">
         <v>6.64</v>
       </c>
-      <c r="J28" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>KALIMANTAN UTARA</v>
+      <c r="J28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>5.06</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="C29">
         <v>5.74</v>
       </c>
-      <c r="D29" t="str">
-        <v>-</v>
+      <c r="D29" t="s">
+        <v>9</v>
       </c>
       <c r="E29">
-        <v>9.46</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="F29">
         <v>10.07</v>
       </c>
-      <c r="G29" t="str">
-        <v>-</v>
+      <c r="G29" t="s">
+        <v>9</v>
       </c>
       <c r="H29">
         <v>6.8</v>
@@ -1227,13 +1424,13 @@
       <c r="I29">
         <v>7.41</v>
       </c>
-      <c r="J29" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>SULAWESI UTARA</v>
+      <c r="J29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>33</v>
       </c>
       <c r="B30">
         <v>5.22</v>
@@ -1241,8 +1438,8 @@
       <c r="C30">
         <v>5.31</v>
       </c>
-      <c r="D30" t="str">
-        <v>-</v>
+      <c r="D30" t="s">
+        <v>9</v>
       </c>
       <c r="E30">
         <v>10.25</v>
@@ -1250,8 +1447,8 @@
       <c r="F30">
         <v>10.64</v>
       </c>
-      <c r="G30" t="str">
-        <v>-</v>
+      <c r="G30" t="s">
+        <v>9</v>
       </c>
       <c r="H30">
         <v>7.62</v>
@@ -1259,22 +1456,22 @@
       <c r="I30">
         <v>7.78</v>
       </c>
-      <c r="J30" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>SULAWESI TENGAH</v>
+      <c r="J30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>34</v>
       </c>
       <c r="B31">
         <v>8.76</v>
       </c>
       <c r="C31">
-        <v>9.21</v>
-      </c>
-      <c r="D31" t="str">
-        <v>-</v>
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
       </c>
       <c r="E31">
         <v>14.69</v>
@@ -1282,8 +1479,8 @@
       <c r="F31">
         <v>14.76</v>
       </c>
-      <c r="G31" t="str">
-        <v>-</v>
+      <c r="G31" t="s">
+        <v>9</v>
       </c>
       <c r="H31">
         <v>12.92</v>
@@ -1291,13 +1488,13 @@
       <c r="I31">
         <v>13.06</v>
       </c>
-      <c r="J31" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>SULAWESI SELATAN</v>
+      <c r="J31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>35</v>
       </c>
       <c r="B32">
         <v>4.49</v>
@@ -1305,8 +1502,8 @@
       <c r="C32">
         <v>4.92</v>
       </c>
-      <c r="D32" t="str">
-        <v>-</v>
+      <c r="D32" t="s">
+        <v>9</v>
       </c>
       <c r="E32">
         <v>11.97</v>
@@ -1314,22 +1511,22 @@
       <c r="F32">
         <v>12.25</v>
       </c>
-      <c r="G32" t="str">
-        <v>-</v>
+      <c r="G32" t="s">
+        <v>9</v>
       </c>
       <c r="H32">
-        <v>8.72</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="I32">
         <v>8.99</v>
       </c>
-      <c r="J32" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>SULAWESI TENGGARA</v>
+      <c r="J32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>36</v>
       </c>
       <c r="B33">
         <v>7.14</v>
@@ -1337,8 +1534,8 @@
       <c r="C33">
         <v>7.62</v>
       </c>
-      <c r="D33" t="str">
-        <v>-</v>
+      <c r="D33" t="s">
+        <v>9</v>
       </c>
       <c r="E33">
         <v>13.5</v>
@@ -1346,8 +1543,8 @@
       <c r="F33">
         <v>13.93</v>
       </c>
-      <c r="G33" t="str">
-        <v>-</v>
+      <c r="G33" t="s">
+        <v>9</v>
       </c>
       <c r="H33">
         <v>11</v>
@@ -1355,13 +1552,13 @@
       <c r="I33">
         <v>11.69</v>
       </c>
-      <c r="J33" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>GORONTALO</v>
+      <c r="J33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>37</v>
       </c>
       <c r="B34">
         <v>3.97</v>
@@ -1369,8 +1566,8 @@
       <c r="C34">
         <v>4.18</v>
       </c>
-      <c r="D34" t="str">
-        <v>-</v>
+      <c r="D34" t="s">
+        <v>9</v>
       </c>
       <c r="E34">
         <v>23.45</v>
@@ -1378,8 +1575,8 @@
       <c r="F34">
         <v>24.32</v>
       </c>
-      <c r="G34" t="str">
-        <v>-</v>
+      <c r="G34" t="s">
+        <v>9</v>
       </c>
       <c r="H34">
         <v>15.22</v>
@@ -1387,13 +1584,13 @@
       <c r="I34">
         <v>15.59</v>
       </c>
-      <c r="J34" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>SULAWESI BARAT</v>
+      <c r="J34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>38</v>
       </c>
       <c r="B35">
         <v>9.59</v>
@@ -1401,8 +1598,8 @@
       <c r="C35">
         <v>9.98</v>
       </c>
-      <c r="D35" t="str">
-        <v>-</v>
+      <c r="D35" t="s">
+        <v>9</v>
       </c>
       <c r="E35">
         <v>11.26</v>
@@ -1410,8 +1607,8 @@
       <c r="F35">
         <v>11.89</v>
       </c>
-      <c r="G35" t="str">
-        <v>-</v>
+      <c r="G35" t="s">
+        <v>9</v>
       </c>
       <c r="H35">
         <v>10.87</v>
@@ -1419,13 +1616,13 @@
       <c r="I35">
         <v>11.5</v>
       </c>
-      <c r="J35" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>MALUKU</v>
+      <c r="J35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>39</v>
       </c>
       <c r="B36">
         <v>6.23</v>
@@ -1433,8 +1630,8 @@
       <c r="C36">
         <v>6.36</v>
       </c>
-      <c r="D36" t="str">
-        <v>-</v>
+      <c r="D36" t="s">
+        <v>9</v>
       </c>
       <c r="E36">
         <v>26.21</v>
@@ -1442,22 +1639,22 @@
       <c r="F36">
         <v>27.06</v>
       </c>
-      <c r="G36" t="str">
-        <v>-</v>
+      <c r="G36" t="s">
+        <v>9</v>
       </c>
       <c r="H36">
-        <v>17.44</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="I36">
-        <v>17.99</v>
-      </c>
-      <c r="J36" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>MALUKU UTARA</v>
+        <v>17.989999999999998</v>
+      </c>
+      <c r="J36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>40</v>
       </c>
       <c r="B37">
         <v>4.53</v>
@@ -1465,8 +1662,8 @@
       <c r="C37">
         <v>5.03</v>
       </c>
-      <c r="D37" t="str">
-        <v>-</v>
+      <c r="D37" t="s">
+        <v>9</v>
       </c>
       <c r="E37">
         <v>7.7</v>
@@ -1474,8 +1671,8 @@
       <c r="F37">
         <v>7.74</v>
       </c>
-      <c r="G37" t="str">
-        <v>-</v>
+      <c r="G37" t="s">
+        <v>9</v>
       </c>
       <c r="H37">
         <v>6.78</v>
@@ -1483,13 +1680,13 @@
       <c r="I37">
         <v>6.97</v>
       </c>
-      <c r="J37" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>PAPUA BARAT</v>
+      <c r="J37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>41</v>
       </c>
       <c r="B38">
         <v>5.85</v>
@@ -1497,17 +1694,17 @@
       <c r="C38">
         <v>6.31</v>
       </c>
-      <c r="D38" t="str">
-        <v>-</v>
+      <c r="D38" t="s">
+        <v>9</v>
       </c>
       <c r="E38">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="F38">
-        <v>33.2</v>
-      </c>
-      <c r="G38" t="str">
-        <v>-</v>
+        <v>33.200000000000003</v>
+      </c>
+      <c r="G38" t="s">
+        <v>9</v>
       </c>
       <c r="H38">
         <v>21.37</v>
@@ -1515,45 +1712,45 @@
       <c r="I38">
         <v>21.7</v>
       </c>
-      <c r="J38" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>PAPUA BARAT DAYA</v>
-      </c>
-      <c r="B39" t="str">
-        <v>-</v>
-      </c>
-      <c r="C39" t="str">
-        <v>-</v>
-      </c>
-      <c r="D39" t="str">
-        <v>-</v>
-      </c>
-      <c r="E39" t="str">
-        <v>-</v>
-      </c>
-      <c r="F39" t="str">
-        <v>-</v>
-      </c>
-      <c r="G39" t="str">
-        <v>-</v>
-      </c>
-      <c r="H39" t="str">
-        <v>-</v>
-      </c>
-      <c r="I39" t="str">
-        <v>-</v>
-      </c>
-      <c r="J39" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>PAPUA</v>
+      <c r="J38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>43</v>
       </c>
       <c r="B40">
         <v>4.47</v>
@@ -1561,8 +1758,8 @@
       <c r="C40">
         <v>4.59</v>
       </c>
-      <c r="D40" t="str">
-        <v>-</v>
+      <c r="D40" t="s">
+        <v>9</v>
       </c>
       <c r="E40">
         <v>35.5</v>
@@ -1570,8 +1767,8 @@
       <c r="F40">
         <v>35.69</v>
       </c>
-      <c r="G40" t="str">
-        <v>-</v>
+      <c r="G40" t="s">
+        <v>9</v>
       </c>
       <c r="H40">
         <v>26.64</v>
@@ -1579,109 +1776,109 @@
       <c r="I40">
         <v>26.8</v>
       </c>
-      <c r="J40" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>PAPUA SELATAN</v>
-      </c>
-      <c r="B41" t="str">
-        <v>-</v>
-      </c>
-      <c r="C41" t="str">
-        <v>-</v>
-      </c>
-      <c r="D41" t="str">
-        <v>-</v>
-      </c>
-      <c r="E41" t="str">
-        <v>-</v>
-      </c>
-      <c r="F41" t="str">
-        <v>-</v>
-      </c>
-      <c r="G41" t="str">
-        <v>-</v>
-      </c>
-      <c r="H41" t="str">
-        <v>-</v>
-      </c>
-      <c r="I41" t="str">
-        <v>-</v>
-      </c>
-      <c r="J41" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>PAPUA TENGAH</v>
-      </c>
-      <c r="B42" t="str">
-        <v>-</v>
-      </c>
-      <c r="C42" t="str">
-        <v>-</v>
-      </c>
-      <c r="D42" t="str">
-        <v>-</v>
-      </c>
-      <c r="E42" t="str">
-        <v>-</v>
-      </c>
-      <c r="F42" t="str">
-        <v>-</v>
-      </c>
-      <c r="G42" t="str">
-        <v>-</v>
-      </c>
-      <c r="H42" t="str">
-        <v>-</v>
-      </c>
-      <c r="I42" t="str">
-        <v>-</v>
-      </c>
-      <c r="J42" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>PAPUA PEGUNUNGAN</v>
-      </c>
-      <c r="B43" t="str">
-        <v>-</v>
-      </c>
-      <c r="C43" t="str">
-        <v>-</v>
-      </c>
-      <c r="D43" t="str">
-        <v>-</v>
-      </c>
-      <c r="E43" t="str">
-        <v>-</v>
-      </c>
-      <c r="F43" t="str">
-        <v>-</v>
-      </c>
-      <c r="G43" t="str">
-        <v>-</v>
-      </c>
-      <c r="H43" t="str">
-        <v>-</v>
-      </c>
-      <c r="I43" t="str">
-        <v>-</v>
-      </c>
-      <c r="J43" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>INDONESIA</v>
+      <c r="J40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" t="s">
+        <v>9</v>
+      </c>
+      <c r="J41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42" t="s">
+        <v>9</v>
+      </c>
+      <c r="J42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" t="s">
+        <v>9</v>
+      </c>
+      <c r="I43" t="s">
+        <v>9</v>
+      </c>
+      <c r="J43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>47</v>
       </c>
       <c r="B44">
         <v>7.38</v>
@@ -1689,8 +1886,8 @@
       <c r="C44">
         <v>7.88</v>
       </c>
-      <c r="D44" t="str">
-        <v>-</v>
+      <c r="D44" t="s">
+        <v>9</v>
       </c>
       <c r="E44">
         <v>12.82</v>
@@ -1698,17 +1895,17 @@
       <c r="F44">
         <v>13.2</v>
       </c>
-      <c r="G44" t="str">
-        <v>-</v>
+      <c r="G44" t="s">
+        <v>9</v>
       </c>
       <c r="H44">
-        <v>9.78</v>
+        <v>9.7799999999999994</v>
       </c>
       <c r="I44">
         <v>10.19</v>
       </c>
-      <c r="J44" t="str">
-        <v>-</v>
+      <c r="J44" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1722,8 +1919,9 @@
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H4:J4"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J44"/>
+    <ignoredError sqref="A1:J44" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/p0-persentase-penduduk-miskin/Persentase Penduduk Miskin (P0) Menurut Provinsi dan Daerah, 2020.xlsx
+++ b/p0-persentase-penduduk-miskin/Persentase Penduduk Miskin (P0) Menurut Provinsi dan Daerah, 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://binusianorg-my.sharepoint.com/personal/dhiya_muharram_binus_ac_id/Documents/0. Lomba &amp; Sertifikat Dokum/Data Slayer/Github/dataset-slayer/p0-persentase-penduduk-miskin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_40EF431F97E9BB65426102AB8855B237A12C5022" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10925C06-6F88-4CFE-ACE8-EA21DE3D4F5F}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_40EF431F97E9BB65426102AB8855B237A12C5022" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A072FDE-9EF3-4F8E-9BA9-A375E6EE6C4F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -557,13 +557,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" activeCellId="1" sqref="C6 F6"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
@@ -571,12 +571,12 @@
     <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -590,7 +590,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -608,7 +608,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>2020</v>
@@ -626,7 +626,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>5</v>
@@ -656,7 +656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -687,12 +687,8 @@
       <c r="J6" t="s">
         <v>9</v>
       </c>
-      <c r="K6">
-        <f>AVERAGE(B6,E6)</f>
-        <v>13.65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -724,7 +720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -756,7 +752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -788,7 +784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -820,7 +816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -852,7 +848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -884,7 +880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -916,7 +912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -948,7 +944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -980,7 +976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1012,7 +1008,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1044,7 +1040,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1076,7 +1072,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1108,7 +1104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1140,7 +1136,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1172,7 +1168,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1204,7 +1200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1236,7 +1232,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1268,7 +1264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1300,7 +1296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1332,7 +1328,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1364,7 +1360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1396,7 +1392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1428,7 +1424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1460,7 +1456,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1492,7 +1488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1524,7 +1520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1556,7 +1552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1588,7 +1584,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1620,7 +1616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1652,7 +1648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1684,7 +1680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1716,7 +1712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -1748,7 +1744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1780,7 +1776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -1812,7 +1808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1844,7 +1840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1876,7 +1872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>47</v>
       </c>

--- a/p0-persentase-penduduk-miskin/Persentase Penduduk Miskin (P0) Menurut Provinsi dan Daerah, 2020.xlsx
+++ b/p0-persentase-penduduk-miskin/Persentase Penduduk Miskin (P0) Menurut Provinsi dan Daerah, 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://binusianorg-my.sharepoint.com/personal/dhiya_muharram_binus_ac_id/Documents/0. Lomba &amp; Sertifikat Dokum/Data Slayer/Github/dataset-slayer/p0-persentase-penduduk-miskin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_40EF431F97E9BB65426102AB8855B237A12C5022" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A072FDE-9EF3-4F8E-9BA9-A375E6EE6C4F}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_40EF431F97E9BB65426102AB8855B237A12C5022" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B73B51B0-58FB-466D-8C62-91F57FCE8F73}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
